--- a/R/data_refs/refbyhand_irr-pump-pressures.xlsx
+++ b/R/data_refs/refbyhand_irr-pump-pressures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gina\Documents\_git-it\alfalfa\R\data_refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B3F09-695B-4DC5-AFC0-B95BA36E1AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D45F6-1C8A-4966-A830-6B85E5314E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>notes</t>
   </si>
@@ -74,21 +74,9 @@
     <t>In Tulare, it's all gravity fed from canals</t>
   </si>
   <si>
-    <t>Must put pressure on drip for it to emit water</t>
-  </si>
-  <si>
-    <t>Need to talk to someone, sprinklers might need 100 psi if they those 'gun cart' style ones</t>
-  </si>
-  <si>
     <t>ground</t>
   </si>
   <si>
-    <t>Not sure if you will need two pumps?</t>
-  </si>
-  <si>
-    <t>Need two pumps?</t>
-  </si>
-  <si>
     <t>siskiyou</t>
   </si>
   <si>
@@ -98,28 +86,52 @@
     <t xml:space="preserve"> pivot</t>
   </si>
   <si>
-    <t>You have to pump it out of the river, could require 70 psi if you are on a hill</t>
-  </si>
-  <si>
-    <t>Will you need two pumps?</t>
-  </si>
-  <si>
-    <t>Siskiyou contact (Russ Harman) said you'll just be using the one pump to get it out of the river</t>
-  </si>
-  <si>
-    <t>I'm a bit confused if this means you need a separate pump for the actual irrigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No idea if normal sprinklers need this kind of pressure. If wheel lines don't, I doubt these do. </t>
-  </si>
-  <si>
-    <t>Same as surface?</t>
-  </si>
-  <si>
     <t>imperial</t>
   </si>
   <si>
-    <t>Unsure on pressures, calling (will help answer above issues as well…)</t>
+    <t>In Siskiyou, you have to pump it out of the river, could require 70 psi if you are on a hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may or may not need two pumps, depending on where your river water is pumped to. Often it goes through a 'coarse' filter, then is pumped again through a finer filter before entering the drip. </t>
+  </si>
+  <si>
+    <t>Siskiyou contact (Russ Harman) said you'll just be using the one pump to get it out of the river and into the sprinkler system</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must put pressure on drip for it to emit water, Mike from AgriValley says 20 psi, but Russel at Landmark says 40-50 psi. Russell was kind of shady. </t>
+  </si>
+  <si>
+    <t>Tulare - seems like you need two pumps</t>
+  </si>
+  <si>
+    <t>Siskiyou, seems like you only use one pump unless you are using drip?</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>The sprinklers need 35-60 psi to work properly, according to Herarldo in Imperial Valley</t>
+  </si>
+  <si>
+    <t>You use a 50 psi pump to get ground water</t>
+  </si>
+  <si>
+    <t>Sprinkler is done using a travelling booster pump, which is definitely going to be diesel (50-60 psi). Suction hose -&gt; filter -&gt; booster pump -&gt; filter -&gt; field</t>
+  </si>
+  <si>
+    <t>You need the ground water pump (50 psi), and most folks pump it into a holding tank, so you need another pump to get it through the filter (whatever psi you assume for drip)</t>
+  </si>
+  <si>
+    <t>This one depends on where your ground water is being pumped, could do it directly into the sprinkler system but not likely in Tulare?</t>
+  </si>
+  <si>
+    <t>It was unclear if the pivot needed a pump directly on it, or if the 'river' pump supplied enough pressure</t>
+  </si>
+  <si>
+    <t>Assume same as surface for all, unclear if a holding tank is used</t>
   </si>
 </sst>
 </file>
@@ -609,9 +621,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -968,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC62357-0511-4CA3-B251-33E17DB7C578}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,6 +1002,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
@@ -1030,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,15 +1067,15 @@
         <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1057,17 +1083,19 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,15 +1103,15 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>150</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1094,8 +1122,8 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,37 +1142,37 @@
         <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1152,45 +1180,45 @@
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>70</v>
+      <c r="D19" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20">
-        <v>100</v>
+      <c r="D20" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1211,6 +1239,14 @@
       </c>
       <c r="E24" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
